--- a/tests/resources/COUNTA.xlsx
+++ b/tests/resources/COUNTA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bradb\Documents\Python\koala_xlcalculator\tests\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bradb\Documents\Python\xlcalculator\tests\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{527A1E9E-57CF-4A3E-921F-D37594C57242}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A725AF-D683-4BF9-B11B-E88CAF29864F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="158" windowWidth="21480" windowHeight="12742" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1538" yWindow="68" windowWidth="17715" windowHeight="12719" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -345,15 +345,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:IW6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:257" x14ac:dyDescent="0.45">
       <c r="A1">
         <f>COUNTA(B1:F1)</f>
         <v>5</v>
@@ -374,7 +374,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:257" x14ac:dyDescent="0.45">
       <c r="A2">
         <f>COUNTA(B2,C2,2,E2:F2)</f>
         <v>3</v>
@@ -389,10 +389,1561 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:257" x14ac:dyDescent="0.45">
       <c r="A3">
         <f>COUNTA(B3:F3,2)</f>
         <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:257" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <f>COUNTA(B4:IV4)</f>
+        <v>255</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="O4">
+        <v>2</v>
+      </c>
+      <c r="P4">
+        <v>2</v>
+      </c>
+      <c r="Q4">
+        <v>2</v>
+      </c>
+      <c r="R4">
+        <v>2</v>
+      </c>
+      <c r="S4">
+        <v>2</v>
+      </c>
+      <c r="T4">
+        <v>2</v>
+      </c>
+      <c r="U4">
+        <v>2</v>
+      </c>
+      <c r="V4">
+        <v>2</v>
+      </c>
+      <c r="W4">
+        <v>2</v>
+      </c>
+      <c r="X4">
+        <v>2</v>
+      </c>
+      <c r="Y4">
+        <v>2</v>
+      </c>
+      <c r="Z4">
+        <v>2</v>
+      </c>
+      <c r="AA4">
+        <v>2</v>
+      </c>
+      <c r="AB4">
+        <v>2</v>
+      </c>
+      <c r="AC4">
+        <v>2</v>
+      </c>
+      <c r="AD4">
+        <v>2</v>
+      </c>
+      <c r="AE4">
+        <v>2</v>
+      </c>
+      <c r="AF4">
+        <v>2</v>
+      </c>
+      <c r="AG4">
+        <v>2</v>
+      </c>
+      <c r="AH4">
+        <v>2</v>
+      </c>
+      <c r="AI4">
+        <v>2</v>
+      </c>
+      <c r="AJ4">
+        <v>2</v>
+      </c>
+      <c r="AK4">
+        <v>2</v>
+      </c>
+      <c r="AL4">
+        <v>2</v>
+      </c>
+      <c r="AM4">
+        <v>2</v>
+      </c>
+      <c r="AN4">
+        <v>2</v>
+      </c>
+      <c r="AO4">
+        <v>2</v>
+      </c>
+      <c r="AP4">
+        <v>2</v>
+      </c>
+      <c r="AQ4">
+        <v>2</v>
+      </c>
+      <c r="AR4">
+        <v>2</v>
+      </c>
+      <c r="AS4">
+        <v>2</v>
+      </c>
+      <c r="AT4">
+        <v>2</v>
+      </c>
+      <c r="AU4">
+        <v>2</v>
+      </c>
+      <c r="AV4">
+        <v>2</v>
+      </c>
+      <c r="AW4">
+        <v>2</v>
+      </c>
+      <c r="AX4">
+        <v>2</v>
+      </c>
+      <c r="AY4">
+        <v>2</v>
+      </c>
+      <c r="AZ4">
+        <v>2</v>
+      </c>
+      <c r="BA4">
+        <v>2</v>
+      </c>
+      <c r="BB4">
+        <v>2</v>
+      </c>
+      <c r="BC4">
+        <v>2</v>
+      </c>
+      <c r="BD4">
+        <v>2</v>
+      </c>
+      <c r="BE4">
+        <v>2</v>
+      </c>
+      <c r="BF4">
+        <v>2</v>
+      </c>
+      <c r="BG4">
+        <v>2</v>
+      </c>
+      <c r="BH4">
+        <v>2</v>
+      </c>
+      <c r="BI4">
+        <v>2</v>
+      </c>
+      <c r="BJ4">
+        <v>2</v>
+      </c>
+      <c r="BK4">
+        <v>2</v>
+      </c>
+      <c r="BL4">
+        <v>2</v>
+      </c>
+      <c r="BM4">
+        <v>2</v>
+      </c>
+      <c r="BN4">
+        <v>2</v>
+      </c>
+      <c r="BO4">
+        <v>2</v>
+      </c>
+      <c r="BP4">
+        <v>2</v>
+      </c>
+      <c r="BQ4">
+        <v>2</v>
+      </c>
+      <c r="BR4">
+        <v>2</v>
+      </c>
+      <c r="BS4">
+        <v>2</v>
+      </c>
+      <c r="BT4">
+        <v>2</v>
+      </c>
+      <c r="BU4">
+        <v>2</v>
+      </c>
+      <c r="BV4">
+        <v>2</v>
+      </c>
+      <c r="BW4">
+        <v>2</v>
+      </c>
+      <c r="BX4">
+        <v>2</v>
+      </c>
+      <c r="BY4">
+        <v>2</v>
+      </c>
+      <c r="BZ4">
+        <v>2</v>
+      </c>
+      <c r="CA4">
+        <v>2</v>
+      </c>
+      <c r="CB4">
+        <v>2</v>
+      </c>
+      <c r="CC4">
+        <v>2</v>
+      </c>
+      <c r="CD4">
+        <v>2</v>
+      </c>
+      <c r="CE4">
+        <v>2</v>
+      </c>
+      <c r="CF4">
+        <v>2</v>
+      </c>
+      <c r="CG4">
+        <v>2</v>
+      </c>
+      <c r="CH4">
+        <v>2</v>
+      </c>
+      <c r="CI4">
+        <v>2</v>
+      </c>
+      <c r="CJ4">
+        <v>2</v>
+      </c>
+      <c r="CK4">
+        <v>2</v>
+      </c>
+      <c r="CL4">
+        <v>2</v>
+      </c>
+      <c r="CM4">
+        <v>2</v>
+      </c>
+      <c r="CN4">
+        <v>2</v>
+      </c>
+      <c r="CO4">
+        <v>2</v>
+      </c>
+      <c r="CP4">
+        <v>2</v>
+      </c>
+      <c r="CQ4">
+        <v>2</v>
+      </c>
+      <c r="CR4">
+        <v>2</v>
+      </c>
+      <c r="CS4">
+        <v>2</v>
+      </c>
+      <c r="CT4">
+        <v>2</v>
+      </c>
+      <c r="CU4">
+        <v>2</v>
+      </c>
+      <c r="CV4">
+        <v>2</v>
+      </c>
+      <c r="CW4">
+        <v>2</v>
+      </c>
+      <c r="CX4">
+        <v>2</v>
+      </c>
+      <c r="CY4">
+        <v>2</v>
+      </c>
+      <c r="CZ4">
+        <v>2</v>
+      </c>
+      <c r="DA4">
+        <v>2</v>
+      </c>
+      <c r="DB4">
+        <v>2</v>
+      </c>
+      <c r="DC4">
+        <v>2</v>
+      </c>
+      <c r="DD4">
+        <v>2</v>
+      </c>
+      <c r="DE4">
+        <v>2</v>
+      </c>
+      <c r="DF4">
+        <v>2</v>
+      </c>
+      <c r="DG4">
+        <v>2</v>
+      </c>
+      <c r="DH4">
+        <v>2</v>
+      </c>
+      <c r="DI4">
+        <v>2</v>
+      </c>
+      <c r="DJ4">
+        <v>2</v>
+      </c>
+      <c r="DK4">
+        <v>2</v>
+      </c>
+      <c r="DL4">
+        <v>2</v>
+      </c>
+      <c r="DM4">
+        <v>2</v>
+      </c>
+      <c r="DN4">
+        <v>2</v>
+      </c>
+      <c r="DO4">
+        <v>2</v>
+      </c>
+      <c r="DP4">
+        <v>2</v>
+      </c>
+      <c r="DQ4">
+        <v>2</v>
+      </c>
+      <c r="DR4">
+        <v>2</v>
+      </c>
+      <c r="DS4">
+        <v>2</v>
+      </c>
+      <c r="DT4">
+        <v>2</v>
+      </c>
+      <c r="DU4">
+        <v>2</v>
+      </c>
+      <c r="DV4">
+        <v>2</v>
+      </c>
+      <c r="DW4">
+        <v>2</v>
+      </c>
+      <c r="DX4">
+        <v>2</v>
+      </c>
+      <c r="DY4">
+        <v>2</v>
+      </c>
+      <c r="DZ4">
+        <v>2</v>
+      </c>
+      <c r="EA4">
+        <v>2</v>
+      </c>
+      <c r="EB4">
+        <v>2</v>
+      </c>
+      <c r="EC4">
+        <v>2</v>
+      </c>
+      <c r="ED4">
+        <v>2</v>
+      </c>
+      <c r="EE4">
+        <v>2</v>
+      </c>
+      <c r="EF4">
+        <v>2</v>
+      </c>
+      <c r="EG4">
+        <v>2</v>
+      </c>
+      <c r="EH4">
+        <v>2</v>
+      </c>
+      <c r="EI4">
+        <v>2</v>
+      </c>
+      <c r="EJ4">
+        <v>2</v>
+      </c>
+      <c r="EK4">
+        <v>2</v>
+      </c>
+      <c r="EL4">
+        <v>2</v>
+      </c>
+      <c r="EM4">
+        <v>2</v>
+      </c>
+      <c r="EN4">
+        <v>2</v>
+      </c>
+      <c r="EO4">
+        <v>2</v>
+      </c>
+      <c r="EP4">
+        <v>2</v>
+      </c>
+      <c r="EQ4">
+        <v>2</v>
+      </c>
+      <c r="ER4">
+        <v>2</v>
+      </c>
+      <c r="ES4">
+        <v>2</v>
+      </c>
+      <c r="ET4">
+        <v>2</v>
+      </c>
+      <c r="EU4">
+        <v>2</v>
+      </c>
+      <c r="EV4">
+        <v>2</v>
+      </c>
+      <c r="EW4">
+        <v>2</v>
+      </c>
+      <c r="EX4">
+        <v>2</v>
+      </c>
+      <c r="EY4">
+        <v>2</v>
+      </c>
+      <c r="EZ4">
+        <v>2</v>
+      </c>
+      <c r="FA4">
+        <v>2</v>
+      </c>
+      <c r="FB4">
+        <v>2</v>
+      </c>
+      <c r="FC4">
+        <v>2</v>
+      </c>
+      <c r="FD4">
+        <v>2</v>
+      </c>
+      <c r="FE4">
+        <v>2</v>
+      </c>
+      <c r="FF4">
+        <v>2</v>
+      </c>
+      <c r="FG4">
+        <v>2</v>
+      </c>
+      <c r="FH4">
+        <v>2</v>
+      </c>
+      <c r="FI4">
+        <v>2</v>
+      </c>
+      <c r="FJ4">
+        <v>2</v>
+      </c>
+      <c r="FK4">
+        <v>2</v>
+      </c>
+      <c r="FL4">
+        <v>2</v>
+      </c>
+      <c r="FM4">
+        <v>2</v>
+      </c>
+      <c r="FN4">
+        <v>2</v>
+      </c>
+      <c r="FO4">
+        <v>2</v>
+      </c>
+      <c r="FP4">
+        <v>2</v>
+      </c>
+      <c r="FQ4">
+        <v>2</v>
+      </c>
+      <c r="FR4">
+        <v>2</v>
+      </c>
+      <c r="FS4">
+        <v>2</v>
+      </c>
+      <c r="FT4">
+        <v>2</v>
+      </c>
+      <c r="FU4">
+        <v>2</v>
+      </c>
+      <c r="FV4">
+        <v>2</v>
+      </c>
+      <c r="FW4">
+        <v>2</v>
+      </c>
+      <c r="FX4">
+        <v>2</v>
+      </c>
+      <c r="FY4">
+        <v>2</v>
+      </c>
+      <c r="FZ4">
+        <v>2</v>
+      </c>
+      <c r="GA4">
+        <v>2</v>
+      </c>
+      <c r="GB4">
+        <v>2</v>
+      </c>
+      <c r="GC4">
+        <v>2</v>
+      </c>
+      <c r="GD4">
+        <v>2</v>
+      </c>
+      <c r="GE4">
+        <v>2</v>
+      </c>
+      <c r="GF4">
+        <v>2</v>
+      </c>
+      <c r="GG4">
+        <v>2</v>
+      </c>
+      <c r="GH4">
+        <v>2</v>
+      </c>
+      <c r="GI4">
+        <v>2</v>
+      </c>
+      <c r="GJ4">
+        <v>2</v>
+      </c>
+      <c r="GK4">
+        <v>2</v>
+      </c>
+      <c r="GL4">
+        <v>2</v>
+      </c>
+      <c r="GM4">
+        <v>2</v>
+      </c>
+      <c r="GN4">
+        <v>2</v>
+      </c>
+      <c r="GO4">
+        <v>2</v>
+      </c>
+      <c r="GP4">
+        <v>2</v>
+      </c>
+      <c r="GQ4">
+        <v>2</v>
+      </c>
+      <c r="GR4">
+        <v>2</v>
+      </c>
+      <c r="GS4">
+        <v>2</v>
+      </c>
+      <c r="GT4">
+        <v>2</v>
+      </c>
+      <c r="GU4">
+        <v>2</v>
+      </c>
+      <c r="GV4">
+        <v>2</v>
+      </c>
+      <c r="GW4">
+        <v>2</v>
+      </c>
+      <c r="GX4">
+        <v>2</v>
+      </c>
+      <c r="GY4">
+        <v>2</v>
+      </c>
+      <c r="GZ4">
+        <v>2</v>
+      </c>
+      <c r="HA4">
+        <v>2</v>
+      </c>
+      <c r="HB4">
+        <v>2</v>
+      </c>
+      <c r="HC4">
+        <v>2</v>
+      </c>
+      <c r="HD4">
+        <v>2</v>
+      </c>
+      <c r="HE4">
+        <v>2</v>
+      </c>
+      <c r="HF4">
+        <v>2</v>
+      </c>
+      <c r="HG4">
+        <v>2</v>
+      </c>
+      <c r="HH4">
+        <v>2</v>
+      </c>
+      <c r="HI4">
+        <v>2</v>
+      </c>
+      <c r="HJ4">
+        <v>2</v>
+      </c>
+      <c r="HK4">
+        <v>2</v>
+      </c>
+      <c r="HL4">
+        <v>2</v>
+      </c>
+      <c r="HM4">
+        <v>2</v>
+      </c>
+      <c r="HN4">
+        <v>2</v>
+      </c>
+      <c r="HO4">
+        <v>2</v>
+      </c>
+      <c r="HP4">
+        <v>2</v>
+      </c>
+      <c r="HQ4">
+        <v>2</v>
+      </c>
+      <c r="HR4">
+        <v>2</v>
+      </c>
+      <c r="HS4">
+        <v>2</v>
+      </c>
+      <c r="HT4">
+        <v>2</v>
+      </c>
+      <c r="HU4">
+        <v>2</v>
+      </c>
+      <c r="HV4">
+        <v>2</v>
+      </c>
+      <c r="HW4">
+        <v>2</v>
+      </c>
+      <c r="HX4">
+        <v>2</v>
+      </c>
+      <c r="HY4">
+        <v>2</v>
+      </c>
+      <c r="HZ4">
+        <v>2</v>
+      </c>
+      <c r="IA4">
+        <v>2</v>
+      </c>
+      <c r="IB4">
+        <v>2</v>
+      </c>
+      <c r="IC4">
+        <v>2</v>
+      </c>
+      <c r="ID4">
+        <v>2</v>
+      </c>
+      <c r="IE4">
+        <v>2</v>
+      </c>
+      <c r="IF4">
+        <v>2</v>
+      </c>
+      <c r="IG4">
+        <v>2</v>
+      </c>
+      <c r="IH4">
+        <v>2</v>
+      </c>
+      <c r="II4">
+        <v>2</v>
+      </c>
+      <c r="IJ4">
+        <v>2</v>
+      </c>
+      <c r="IK4">
+        <v>2</v>
+      </c>
+      <c r="IL4">
+        <v>2</v>
+      </c>
+      <c r="IM4">
+        <v>2</v>
+      </c>
+      <c r="IN4">
+        <v>2</v>
+      </c>
+      <c r="IO4">
+        <v>2</v>
+      </c>
+      <c r="IP4">
+        <v>2</v>
+      </c>
+      <c r="IQ4">
+        <v>2</v>
+      </c>
+      <c r="IR4">
+        <v>2</v>
+      </c>
+      <c r="IS4">
+        <v>2</v>
+      </c>
+      <c r="IT4">
+        <v>2</v>
+      </c>
+      <c r="IU4">
+        <v>2</v>
+      </c>
+      <c r="IV4">
+        <v>2</v>
+      </c>
+      <c r="IW4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:257" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <f>COUNTA(B4:IW4)</f>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="6" spans="1:257" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <f>COUNTA(B6:IW6)</f>
+        <v>255</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>2</v>
+      </c>
+      <c r="M6">
+        <v>2</v>
+      </c>
+      <c r="N6">
+        <v>2</v>
+      </c>
+      <c r="O6">
+        <v>2</v>
+      </c>
+      <c r="P6">
+        <v>2</v>
+      </c>
+      <c r="Q6">
+        <v>2</v>
+      </c>
+      <c r="R6">
+        <v>2</v>
+      </c>
+      <c r="S6">
+        <v>2</v>
+      </c>
+      <c r="T6">
+        <v>2</v>
+      </c>
+      <c r="U6">
+        <v>2</v>
+      </c>
+      <c r="V6">
+        <v>2</v>
+      </c>
+      <c r="W6">
+        <v>2</v>
+      </c>
+      <c r="X6">
+        <v>2</v>
+      </c>
+      <c r="Y6">
+        <v>2</v>
+      </c>
+      <c r="Z6">
+        <v>2</v>
+      </c>
+      <c r="AA6">
+        <v>2</v>
+      </c>
+      <c r="AB6">
+        <v>2</v>
+      </c>
+      <c r="AC6">
+        <v>2</v>
+      </c>
+      <c r="AD6">
+        <v>2</v>
+      </c>
+      <c r="AE6">
+        <v>2</v>
+      </c>
+      <c r="AF6">
+        <v>2</v>
+      </c>
+      <c r="AG6">
+        <v>2</v>
+      </c>
+      <c r="AH6">
+        <v>2</v>
+      </c>
+      <c r="AI6">
+        <v>2</v>
+      </c>
+      <c r="AJ6">
+        <v>2</v>
+      </c>
+      <c r="AK6">
+        <v>2</v>
+      </c>
+      <c r="AL6">
+        <v>2</v>
+      </c>
+      <c r="AM6">
+        <v>2</v>
+      </c>
+      <c r="AN6">
+        <v>2</v>
+      </c>
+      <c r="AO6">
+        <v>2</v>
+      </c>
+      <c r="AP6">
+        <v>2</v>
+      </c>
+      <c r="AQ6">
+        <v>2</v>
+      </c>
+      <c r="AR6">
+        <v>2</v>
+      </c>
+      <c r="AS6">
+        <v>2</v>
+      </c>
+      <c r="AT6">
+        <v>2</v>
+      </c>
+      <c r="AU6">
+        <v>2</v>
+      </c>
+      <c r="AV6">
+        <v>2</v>
+      </c>
+      <c r="AW6">
+        <v>2</v>
+      </c>
+      <c r="AX6">
+        <v>2</v>
+      </c>
+      <c r="AY6">
+        <v>2</v>
+      </c>
+      <c r="AZ6">
+        <v>2</v>
+      </c>
+      <c r="BA6">
+        <v>2</v>
+      </c>
+      <c r="BB6">
+        <v>2</v>
+      </c>
+      <c r="BC6">
+        <v>2</v>
+      </c>
+      <c r="BD6">
+        <v>2</v>
+      </c>
+      <c r="BE6">
+        <v>2</v>
+      </c>
+      <c r="BF6">
+        <v>2</v>
+      </c>
+      <c r="BG6">
+        <v>2</v>
+      </c>
+      <c r="BH6">
+        <v>2</v>
+      </c>
+      <c r="BI6">
+        <v>2</v>
+      </c>
+      <c r="BJ6">
+        <v>2</v>
+      </c>
+      <c r="BK6">
+        <v>2</v>
+      </c>
+      <c r="BL6">
+        <v>2</v>
+      </c>
+      <c r="BM6">
+        <v>2</v>
+      </c>
+      <c r="BN6">
+        <v>2</v>
+      </c>
+      <c r="BO6">
+        <v>2</v>
+      </c>
+      <c r="BP6">
+        <v>2</v>
+      </c>
+      <c r="BQ6">
+        <v>2</v>
+      </c>
+      <c r="BR6">
+        <v>2</v>
+      </c>
+      <c r="BS6">
+        <v>2</v>
+      </c>
+      <c r="BT6">
+        <v>2</v>
+      </c>
+      <c r="BU6">
+        <v>2</v>
+      </c>
+      <c r="BV6">
+        <v>2</v>
+      </c>
+      <c r="BW6">
+        <v>2</v>
+      </c>
+      <c r="BX6">
+        <v>2</v>
+      </c>
+      <c r="BY6">
+        <v>2</v>
+      </c>
+      <c r="BZ6">
+        <v>2</v>
+      </c>
+      <c r="CA6">
+        <v>2</v>
+      </c>
+      <c r="CB6">
+        <v>2</v>
+      </c>
+      <c r="CC6">
+        <v>2</v>
+      </c>
+      <c r="CD6">
+        <v>2</v>
+      </c>
+      <c r="CE6">
+        <v>2</v>
+      </c>
+      <c r="CF6">
+        <v>2</v>
+      </c>
+      <c r="CG6">
+        <v>2</v>
+      </c>
+      <c r="CH6">
+        <v>2</v>
+      </c>
+      <c r="CI6">
+        <v>2</v>
+      </c>
+      <c r="CJ6">
+        <v>2</v>
+      </c>
+      <c r="CK6">
+        <v>2</v>
+      </c>
+      <c r="CL6">
+        <v>2</v>
+      </c>
+      <c r="CM6">
+        <v>2</v>
+      </c>
+      <c r="CN6">
+        <v>2</v>
+      </c>
+      <c r="CO6">
+        <v>2</v>
+      </c>
+      <c r="CP6">
+        <v>2</v>
+      </c>
+      <c r="CQ6">
+        <v>2</v>
+      </c>
+      <c r="CR6">
+        <v>2</v>
+      </c>
+      <c r="CS6">
+        <v>2</v>
+      </c>
+      <c r="CT6">
+        <v>2</v>
+      </c>
+      <c r="CU6">
+        <v>2</v>
+      </c>
+      <c r="CV6">
+        <v>2</v>
+      </c>
+      <c r="CW6">
+        <v>2</v>
+      </c>
+      <c r="CX6">
+        <v>2</v>
+      </c>
+      <c r="CY6">
+        <v>2</v>
+      </c>
+      <c r="CZ6">
+        <v>2</v>
+      </c>
+      <c r="DA6">
+        <v>2</v>
+      </c>
+      <c r="DB6">
+        <v>2</v>
+      </c>
+      <c r="DC6">
+        <v>2</v>
+      </c>
+      <c r="DD6">
+        <v>2</v>
+      </c>
+      <c r="DE6">
+        <v>2</v>
+      </c>
+      <c r="DF6">
+        <v>2</v>
+      </c>
+      <c r="DG6">
+        <v>2</v>
+      </c>
+      <c r="DH6">
+        <v>2</v>
+      </c>
+      <c r="DI6">
+        <v>2</v>
+      </c>
+      <c r="DJ6">
+        <v>2</v>
+      </c>
+      <c r="DK6">
+        <v>2</v>
+      </c>
+      <c r="DL6">
+        <v>2</v>
+      </c>
+      <c r="DM6">
+        <v>2</v>
+      </c>
+      <c r="DN6">
+        <v>2</v>
+      </c>
+      <c r="DO6">
+        <v>2</v>
+      </c>
+      <c r="DP6">
+        <v>2</v>
+      </c>
+      <c r="DQ6">
+        <v>2</v>
+      </c>
+      <c r="DR6">
+        <v>2</v>
+      </c>
+      <c r="DS6">
+        <v>2</v>
+      </c>
+      <c r="DT6">
+        <v>2</v>
+      </c>
+      <c r="DU6">
+        <v>2</v>
+      </c>
+      <c r="DV6">
+        <v>2</v>
+      </c>
+      <c r="DW6">
+        <v>2</v>
+      </c>
+      <c r="DX6">
+        <v>2</v>
+      </c>
+      <c r="DY6">
+        <v>2</v>
+      </c>
+      <c r="DZ6">
+        <v>2</v>
+      </c>
+      <c r="EA6">
+        <v>2</v>
+      </c>
+      <c r="EB6">
+        <v>2</v>
+      </c>
+      <c r="EC6">
+        <v>2</v>
+      </c>
+      <c r="ED6">
+        <v>2</v>
+      </c>
+      <c r="EE6">
+        <v>2</v>
+      </c>
+      <c r="EF6">
+        <v>2</v>
+      </c>
+      <c r="EG6">
+        <v>2</v>
+      </c>
+      <c r="EH6">
+        <v>2</v>
+      </c>
+      <c r="EI6">
+        <v>2</v>
+      </c>
+      <c r="EJ6">
+        <v>2</v>
+      </c>
+      <c r="EK6">
+        <v>2</v>
+      </c>
+      <c r="EL6">
+        <v>2</v>
+      </c>
+      <c r="EM6">
+        <v>2</v>
+      </c>
+      <c r="EN6">
+        <v>2</v>
+      </c>
+      <c r="EO6">
+        <v>2</v>
+      </c>
+      <c r="EP6">
+        <v>2</v>
+      </c>
+      <c r="EQ6">
+        <v>2</v>
+      </c>
+      <c r="ER6">
+        <v>2</v>
+      </c>
+      <c r="ES6">
+        <v>2</v>
+      </c>
+      <c r="ET6">
+        <v>2</v>
+      </c>
+      <c r="EU6">
+        <v>2</v>
+      </c>
+      <c r="EV6">
+        <v>2</v>
+      </c>
+      <c r="EW6">
+        <v>2</v>
+      </c>
+      <c r="EX6">
+        <v>2</v>
+      </c>
+      <c r="EY6">
+        <v>2</v>
+      </c>
+      <c r="EZ6">
+        <v>2</v>
+      </c>
+      <c r="FA6">
+        <v>2</v>
+      </c>
+      <c r="FB6">
+        <v>2</v>
+      </c>
+      <c r="FC6">
+        <v>2</v>
+      </c>
+      <c r="FD6">
+        <v>2</v>
+      </c>
+      <c r="FE6">
+        <v>2</v>
+      </c>
+      <c r="FF6">
+        <v>2</v>
+      </c>
+      <c r="FG6">
+        <v>2</v>
+      </c>
+      <c r="FH6">
+        <v>2</v>
+      </c>
+      <c r="FI6">
+        <v>2</v>
+      </c>
+      <c r="FJ6">
+        <v>2</v>
+      </c>
+      <c r="FK6">
+        <v>2</v>
+      </c>
+      <c r="FL6">
+        <v>2</v>
+      </c>
+      <c r="FM6">
+        <v>2</v>
+      </c>
+      <c r="FN6">
+        <v>2</v>
+      </c>
+      <c r="FO6">
+        <v>2</v>
+      </c>
+      <c r="FP6">
+        <v>2</v>
+      </c>
+      <c r="FQ6">
+        <v>2</v>
+      </c>
+      <c r="FR6">
+        <v>2</v>
+      </c>
+      <c r="FS6">
+        <v>2</v>
+      </c>
+      <c r="FT6">
+        <v>2</v>
+      </c>
+      <c r="FU6">
+        <v>2</v>
+      </c>
+      <c r="FV6">
+        <v>2</v>
+      </c>
+      <c r="FW6">
+        <v>2</v>
+      </c>
+      <c r="FX6">
+        <v>2</v>
+      </c>
+      <c r="FY6">
+        <v>2</v>
+      </c>
+      <c r="FZ6">
+        <v>2</v>
+      </c>
+      <c r="GA6">
+        <v>2</v>
+      </c>
+      <c r="GB6">
+        <v>2</v>
+      </c>
+      <c r="GC6">
+        <v>2</v>
+      </c>
+      <c r="GD6">
+        <v>2</v>
+      </c>
+      <c r="GE6">
+        <v>2</v>
+      </c>
+      <c r="GF6">
+        <v>2</v>
+      </c>
+      <c r="GG6">
+        <v>2</v>
+      </c>
+      <c r="GH6">
+        <v>2</v>
+      </c>
+      <c r="GI6">
+        <v>2</v>
+      </c>
+      <c r="GJ6">
+        <v>2</v>
+      </c>
+      <c r="GK6">
+        <v>2</v>
+      </c>
+      <c r="GL6">
+        <v>2</v>
+      </c>
+      <c r="GM6">
+        <v>2</v>
+      </c>
+      <c r="GN6">
+        <v>2</v>
+      </c>
+      <c r="GO6">
+        <v>2</v>
+      </c>
+      <c r="GP6">
+        <v>2</v>
+      </c>
+      <c r="GQ6">
+        <v>2</v>
+      </c>
+      <c r="GR6">
+        <v>2</v>
+      </c>
+      <c r="GS6">
+        <v>2</v>
+      </c>
+      <c r="GT6">
+        <v>2</v>
+      </c>
+      <c r="GU6">
+        <v>2</v>
+      </c>
+      <c r="GV6">
+        <v>2</v>
+      </c>
+      <c r="GW6">
+        <v>2</v>
+      </c>
+      <c r="GX6">
+        <v>2</v>
+      </c>
+      <c r="GY6">
+        <v>2</v>
+      </c>
+      <c r="GZ6">
+        <v>2</v>
+      </c>
+      <c r="HA6">
+        <v>2</v>
+      </c>
+      <c r="HB6">
+        <v>2</v>
+      </c>
+      <c r="HC6">
+        <v>2</v>
+      </c>
+      <c r="HD6">
+        <v>2</v>
+      </c>
+      <c r="HE6">
+        <v>2</v>
+      </c>
+      <c r="HF6">
+        <v>2</v>
+      </c>
+      <c r="HG6">
+        <v>2</v>
+      </c>
+      <c r="HH6">
+        <v>2</v>
+      </c>
+      <c r="HI6">
+        <v>2</v>
+      </c>
+      <c r="HJ6">
+        <v>2</v>
+      </c>
+      <c r="HK6">
+        <v>2</v>
+      </c>
+      <c r="HL6">
+        <v>2</v>
+      </c>
+      <c r="HM6">
+        <v>2</v>
+      </c>
+      <c r="HN6">
+        <v>2</v>
+      </c>
+      <c r="HO6">
+        <v>2</v>
+      </c>
+      <c r="HP6">
+        <v>2</v>
+      </c>
+      <c r="HQ6">
+        <v>2</v>
+      </c>
+      <c r="HR6">
+        <v>2</v>
+      </c>
+      <c r="HS6">
+        <v>2</v>
+      </c>
+      <c r="HT6">
+        <v>2</v>
+      </c>
+      <c r="HU6">
+        <v>2</v>
+      </c>
+      <c r="HV6">
+        <v>2</v>
+      </c>
+      <c r="HW6">
+        <v>2</v>
+      </c>
+      <c r="HX6">
+        <v>2</v>
+      </c>
+      <c r="HY6">
+        <v>2</v>
+      </c>
+      <c r="HZ6">
+        <v>2</v>
+      </c>
+      <c r="IA6">
+        <v>2</v>
+      </c>
+      <c r="IB6">
+        <v>2</v>
+      </c>
+      <c r="IC6">
+        <v>2</v>
+      </c>
+      <c r="ID6">
+        <v>2</v>
+      </c>
+      <c r="IE6">
+        <v>2</v>
+      </c>
+      <c r="IF6">
+        <v>2</v>
+      </c>
+      <c r="IG6">
+        <v>2</v>
+      </c>
+      <c r="IH6">
+        <v>2</v>
+      </c>
+      <c r="II6">
+        <v>2</v>
+      </c>
+      <c r="IJ6">
+        <v>2</v>
+      </c>
+      <c r="IK6">
+        <v>2</v>
+      </c>
+      <c r="IL6">
+        <v>2</v>
+      </c>
+      <c r="IM6">
+        <v>2</v>
+      </c>
+      <c r="IN6">
+        <v>2</v>
+      </c>
+      <c r="IO6">
+        <v>2</v>
+      </c>
+      <c r="IP6">
+        <v>2</v>
+      </c>
+      <c r="IQ6">
+        <v>2</v>
+      </c>
+      <c r="IR6">
+        <v>2</v>
+      </c>
+      <c r="IS6">
+        <v>2</v>
+      </c>
+      <c r="IT6">
+        <v>2</v>
+      </c>
+      <c r="IU6">
+        <v>2</v>
+      </c>
+      <c r="IV6">
+        <v>2</v>
+      </c>
+      <c r="IW6">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
